--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H2">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I2">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J2">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N2">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q2">
-        <v>13.12717326647</v>
+        <v>7.859371374233665</v>
       </c>
       <c r="R2">
-        <v>118.14455939823</v>
+        <v>70.73434236810299</v>
       </c>
       <c r="S2">
-        <v>0.0118512092598845</v>
+        <v>0.006090584142030905</v>
       </c>
       <c r="T2">
-        <v>0.0118512092598845</v>
+        <v>0.006090584142030907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H3">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I3">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J3">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q3">
-        <v>13.16210849899567</v>
+        <v>8.289912995233665</v>
       </c>
       <c r="R3">
-        <v>118.458976490961</v>
+        <v>74.60921695710299</v>
       </c>
       <c r="S3">
-        <v>0.01188274878044998</v>
+        <v>0.006424230415312216</v>
       </c>
       <c r="T3">
-        <v>0.01188274878044998</v>
+        <v>0.006424230415312217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H4">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I4">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J4">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N4">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O4">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P4">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q4">
-        <v>3.747342084062333</v>
+        <v>2.127894179158667</v>
       </c>
       <c r="R4">
-        <v>33.72607875656099</v>
+        <v>19.151047612428</v>
       </c>
       <c r="S4">
-        <v>0.003383099644157951</v>
+        <v>0.001649001927303293</v>
       </c>
       <c r="T4">
-        <v>0.00338309964415795</v>
+        <v>0.001649001927303293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H5">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I5">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J5">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N5">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O5">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P5">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q5">
-        <v>6.460002297053999</v>
+        <v>5.377591724088666</v>
       </c>
       <c r="R5">
-        <v>58.14002067348599</v>
+        <v>48.398325516798</v>
       </c>
       <c r="S5">
-        <v>0.005832088713056868</v>
+        <v>0.004167340276657259</v>
       </c>
       <c r="T5">
-        <v>0.005832088713056866</v>
+        <v>0.004167340276657259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H6">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I6">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J6">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N6">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O6">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P6">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q6">
-        <v>2.959773883121</v>
+        <v>1.892969287839333</v>
       </c>
       <c r="R6">
-        <v>26.637964948089</v>
+        <v>17.036723590554</v>
       </c>
       <c r="S6">
-        <v>0.002672083238240091</v>
+        <v>0.001466947950018452</v>
       </c>
       <c r="T6">
-        <v>0.00267208323824009</v>
+        <v>0.001466947950018452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>73.317104</v>
       </c>
       <c r="I7">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J7">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N7">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q7">
-        <v>303.6469408518934</v>
+        <v>288.6429783965031</v>
       </c>
       <c r="R7">
-        <v>2732.82246766704</v>
+        <v>2597.786805568528</v>
       </c>
       <c r="S7">
-        <v>0.2741323942414335</v>
+        <v>0.2236825648287586</v>
       </c>
       <c r="T7">
-        <v>0.2741323942414335</v>
+        <v>0.2236825648287586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>73.317104</v>
       </c>
       <c r="I8">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J8">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q8">
         <v>304.4550338258364</v>
@@ -948,10 +948,10 @@
         <v>2740.095304432528</v>
       </c>
       <c r="S8">
-        <v>0.2748619404080941</v>
+        <v>0.2359360453509462</v>
       </c>
       <c r="T8">
-        <v>0.2748619404080941</v>
+        <v>0.2359360453509462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>73.317104</v>
       </c>
       <c r="I9">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J9">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N9">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O9">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P9">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q9">
-        <v>86.68042518014757</v>
+        <v>78.14896183663646</v>
       </c>
       <c r="R9">
-        <v>780.123826621328</v>
+        <v>703.3406565297281</v>
       </c>
       <c r="S9">
-        <v>0.07825506959442544</v>
+        <v>0.0605611829514554</v>
       </c>
       <c r="T9">
-        <v>0.07825506959442541</v>
+        <v>0.0605611829514554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>73.317104</v>
       </c>
       <c r="I10">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J10">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N10">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O10">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P10">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q10">
-        <v>149.427443028192</v>
+        <v>197.4972320216498</v>
       </c>
       <c r="R10">
-        <v>1344.846987253728</v>
+        <v>1777.475088194848</v>
       </c>
       <c r="S10">
-        <v>0.1349030640907189</v>
+        <v>0.1530495827426587</v>
       </c>
       <c r="T10">
-        <v>0.1349030640907188</v>
+        <v>0.1530495827426587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>73.317104</v>
       </c>
       <c r="I11">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J11">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N11">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O11">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P11">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q11">
-        <v>68.46304737354133</v>
+        <v>69.52111908674489</v>
       </c>
       <c r="R11">
-        <v>616.167426361872</v>
+        <v>625.6900717807041</v>
       </c>
       <c r="S11">
-        <v>0.06180842474789764</v>
+        <v>0.05387507540795613</v>
       </c>
       <c r="T11">
-        <v>0.06180842474789761</v>
+        <v>0.05387507540795615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H12">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I12">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J12">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N12">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q12">
-        <v>50.06088397984</v>
+        <v>100.1255903524044</v>
       </c>
       <c r="R12">
-        <v>450.54795581856</v>
+        <v>901.13031317164</v>
       </c>
       <c r="S12">
-        <v>0.0451949555122633</v>
+        <v>0.07759187138186334</v>
       </c>
       <c r="T12">
-        <v>0.04519495551226328</v>
+        <v>0.07759187138186335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H13">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I13">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J13">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q13">
-        <v>50.19411057682133</v>
+        <v>105.6105371657378</v>
       </c>
       <c r="R13">
-        <v>451.746995191392</v>
+        <v>950.4948344916401</v>
       </c>
       <c r="S13">
-        <v>0.04531523245595542</v>
+        <v>0.08184240599722604</v>
       </c>
       <c r="T13">
-        <v>0.04531523245595542</v>
+        <v>0.08184240599722606</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H14">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I14">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J14">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N14">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O14">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P14">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q14">
-        <v>14.29060571495467</v>
+        <v>27.10861349473778</v>
       </c>
       <c r="R14">
-        <v>128.615451434592</v>
+        <v>243.97752145264</v>
       </c>
       <c r="S14">
-        <v>0.0129015558293131</v>
+        <v>0.02100769687570513</v>
       </c>
       <c r="T14">
-        <v>0.0129015558293131</v>
+        <v>0.02100769687570513</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H15">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I15">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J15">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N15">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O15">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P15">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q15">
-        <v>24.635419898688</v>
+        <v>68.50860207647111</v>
       </c>
       <c r="R15">
-        <v>221.718779088192</v>
+        <v>616.5774186882401</v>
       </c>
       <c r="S15">
-        <v>0.02224085189537416</v>
+        <v>0.05309042995062</v>
       </c>
       <c r="T15">
-        <v>0.02224085189537415</v>
+        <v>0.05309042995062001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H16">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I16">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J16">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N16">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O16">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P16">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q16">
-        <v>11.287189858912</v>
+        <v>24.11575410283556</v>
       </c>
       <c r="R16">
-        <v>101.584708730208</v>
+        <v>217.04178692552</v>
       </c>
       <c r="S16">
-        <v>0.010190072627112</v>
+        <v>0.01868839408624694</v>
       </c>
       <c r="T16">
-        <v>0.010190072627112</v>
+        <v>0.01868839408624695</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H17">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I17">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J17">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N17">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q17">
-        <v>1.686060851453334</v>
+        <v>0.3480072633302222</v>
       </c>
       <c r="R17">
-        <v>15.17454766308</v>
+        <v>3.132065369972</v>
       </c>
       <c r="S17">
-        <v>0.001522175381543187</v>
+        <v>0.0002696866477514297</v>
       </c>
       <c r="T17">
-        <v>0.001522175381543187</v>
+        <v>0.0002696866477514298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H18">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I18">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J18">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>37.373207</v>
       </c>
       <c r="O18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q18">
-        <v>1.690547950595111</v>
+        <v>0.3670713339968888</v>
       </c>
       <c r="R18">
-        <v>15.214931555356</v>
+        <v>3.303642005972</v>
       </c>
       <c r="S18">
-        <v>0.001526226333703229</v>
+        <v>0.0002844602627081702</v>
       </c>
       <c r="T18">
-        <v>0.001526226333703229</v>
+        <v>0.0002844602627081703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H19">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I19">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J19">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N19">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O19">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P19">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q19">
-        <v>0.4813105347728889</v>
+        <v>0.09422161069688891</v>
       </c>
       <c r="R19">
-        <v>4.331794812956</v>
+        <v>0.8479944962720001</v>
       </c>
       <c r="S19">
-        <v>0.0004345270494105624</v>
+        <v>7.301660916908081E-05</v>
       </c>
       <c r="T19">
-        <v>0.0004345270494105624</v>
+        <v>7.30166091690808E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H20">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I20">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J20">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N20">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O20">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P20">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q20">
-        <v>0.829726000584</v>
+        <v>0.2381158606835556</v>
       </c>
       <c r="R20">
-        <v>7.467534005256001</v>
+        <v>2.143042746152</v>
       </c>
       <c r="S20">
-        <v>0.0007490764585552147</v>
+        <v>0.0001845268044973525</v>
       </c>
       <c r="T20">
-        <v>0.0007490764585552146</v>
+        <v>0.0001845268044973525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H21">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I21">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J21">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N21">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O21">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P21">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q21">
-        <v>0.3801548720493333</v>
+        <v>0.08381930692177778</v>
       </c>
       <c r="R21">
-        <v>3.421393848444</v>
+        <v>0.7543737622960001</v>
       </c>
       <c r="S21">
-        <v>0.0003432037384109867</v>
+        <v>6.495539111530769E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003432037384109866</v>
+        <v>6.495539111530771E-05</v>
       </c>
     </row>
   </sheetData>
